--- a/prix/rexuo.xlsx
+++ b/prix/rexuo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C19AD81-FA80-4B62-8426-935FEA39C4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5908F-98B9-494C-978A-4AE46F26A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>43040806</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>32-3,0</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -189,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +207,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -249,6 +261,15 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +608,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +616,7 @@
     <col min="1" max="1" width="36.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.5546875" style="6"/>
-    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="9" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
@@ -620,7 +641,9 @@
       <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -643,6 +666,7 @@
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -657,6 +681,7 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -674,6 +699,9 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -691,6 +719,9 @@
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="F5" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -708,6 +739,9 @@
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -725,6 +759,9 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -739,6 +776,7 @@
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -756,6 +794,9 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="F9" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -773,6 +814,9 @@
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="F10" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -790,6 +834,9 @@
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -807,6 +854,9 @@
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="F12" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -824,6 +874,9 @@
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -841,8 +894,12 @@
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="F14" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prix/rexuo.xlsx
+++ b/prix/rexuo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5908F-98B9-494C-978A-4AE46F26A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14500BF9-6F8F-4882-B2AC-0E9BFC122B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
-  <si>
-    <t>43040806</t>
-  </si>
-  <si>
-    <t>Rexuo tuyau 25x4.2  LD-PE40</t>
-  </si>
-  <si>
-    <t>43040810</t>
-  </si>
-  <si>
-    <t>Rexuo tuyau 32x3.0  HD-PE80</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>43040820</t>
   </si>
@@ -176,16 +164,7 @@
     <t>32-32-se12</t>
   </si>
   <si>
-    <t>25-4,2</t>
-  </si>
-  <si>
-    <t>32-3,0</t>
-  </si>
-  <si>
     <t>disponible</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -238,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -259,16 +238,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -605,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18B34CA-74C9-46C9-A5CE-03F7E37895F6}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +592,7 @@
     <col min="1" max="1" width="36.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.5546875" style="6"/>
-    <col min="6" max="6" width="22.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="8" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
@@ -627,22 +603,22 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>48</v>
+      <c r="F1" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -654,34 +630,44 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2.0300000000000002</v>
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>28.27</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2.25</v>
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>39.97</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -691,16 +677,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="8">
-        <v>28.27</v>
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>34.840000000000003</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>49</v>
+      <c r="F4" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -711,191 +697,153 @@
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="8">
-        <v>39.97</v>
+        <v>33</v>
+      </c>
+      <c r="D5" s="2">
+        <v>57.800000000000004</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>49</v>
+      <c r="F5" s="10">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8">
-        <v>34.840000000000003</v>
+        <v>35</v>
+      </c>
+      <c r="D6" s="2">
+        <v>22.26</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>49</v>
+      <c r="F6" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="8">
-        <v>57.800000000000004</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11.89</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>49</v>
+      <c r="F7" s="10">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="8">
-        <v>22.26</v>
+        <v>37</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17.88</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="8">
-        <v>11.89</v>
+        <v>38</v>
+      </c>
+      <c r="D9" s="2">
+        <v>13.85</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>49</v>
+      <c r="F9" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="8">
-        <v>17.88</v>
+        <v>39</v>
+      </c>
+      <c r="D10" s="2">
+        <v>22.92</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>49</v>
+      <c r="F10" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="8">
-        <v>13.85</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16.55</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>49</v>
+      <c r="F11" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8">
-        <v>22.92</v>
+        <v>41</v>
+      </c>
+      <c r="D12" s="2">
+        <v>28.11</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="8">
-        <v>16.55</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8">
-        <v>28.11</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>49</v>
+      <c r="F12" s="10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/prix/rexuo.xlsx
+++ b/prix/rexuo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14500BF9-6F8F-4882-B2AC-0E9BFC122B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A965A6D-09F5-4682-A695-7180C217A62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -244,7 +244,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -584,7 +587,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,8 +642,8 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2">
-        <v>28.27</v>
+      <c r="D2" s="11">
+        <v>30.84</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -659,8 +662,8 @@
       <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2">
-        <v>39.97</v>
+      <c r="D3" s="11">
+        <v>43.61</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>2</v>
@@ -679,8 +682,8 @@
       <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2">
-        <v>34.840000000000003</v>
+      <c r="D4" s="11">
+        <v>38.01</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>4</v>
@@ -699,8 +702,8 @@
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2">
-        <v>57.800000000000004</v>
+      <c r="D5" s="11">
+        <v>63.050000000000004</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>6</v>
@@ -716,8 +719,8 @@
       <c r="C6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2">
-        <v>22.26</v>
+      <c r="D6" s="11">
+        <v>24.28</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
@@ -736,8 +739,8 @@
       <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2">
-        <v>11.89</v>
+      <c r="D7" s="11">
+        <v>12.98</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -756,14 +759,14 @@
       <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2">
-        <v>17.88</v>
+      <c r="D8" s="11">
+        <v>19.490000000000002</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="10">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -776,8 +779,8 @@
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2">
-        <v>13.85</v>
+      <c r="D9" s="11">
+        <v>15.030000000000001</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
@@ -796,8 +799,8 @@
       <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="2">
-        <v>22.92</v>
+      <c r="D10" s="11">
+        <v>24.96</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -816,8 +819,8 @@
       <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2">
-        <v>16.55</v>
+      <c r="D11" s="11">
+        <v>18.05</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
@@ -836,8 +839,8 @@
       <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2">
-        <v>28.11</v>
+      <c r="D12" s="11">
+        <v>30.66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
